--- a/2019/Pineview/Pineview Report.xlsx
+++ b/2019/Pineview/Pineview Report.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE2BED-D9AD-4BE7-86D0-5D3124C4CBEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9DF04-6C60-4446-92D0-010075E081E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="2019" sheetId="3" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -74,6 +81,18 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Pineview</t>
+  </si>
+  <si>
+    <t>1 Muskie</t>
+  </si>
+  <si>
+    <t>Muskie</t>
   </si>
 </sst>
 </file>
@@ -179,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,17 +221,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,10 +382,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Muskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Perch</c:v>
                 </c:pt>
               </c:strCache>
@@ -461,11 +491,14 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -739,10 +772,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Muskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Perch</c:v>
                 </c:pt>
               </c:strCache>
@@ -796,14 +832,60 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +2498,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,12 +2528,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2489,15 +2571,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="9">
-        <f>SUM(C4)</f>
+        <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2515,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9">
-        <f>AVERAGE(C4)</f>
+        <f>AVERAGE(C3:C4)</f>
         <v>4</v>
       </c>
       <c r="E7" s="7">
@@ -2527,7 +2609,7 @@
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2541,11 +2623,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101145C2-0D85-474B-8D0D-E5BD092738D9}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <f>SUM(C4:C5)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(E4/C6*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
+        <f>AVERAGE(C4:C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,44 +2798,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
+        <f>SUM('2019'!E4)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
         <f>SUM('2018'!E4)</f>
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>SUM(A3/B8*100)</f>
-        <v>100</v>
+      <c r="A6" s="17">
+        <f>SUM(A3/$B8*100)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="B6" s="17">
+        <f>SUM(B3/$B8*100)</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2599,8 +2856,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2018'!C5)</f>
-        <v>4</v>
+        <f>SUM('2018'!C5+'2019'!C6)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2608,8 +2865,8 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2018'!C6)</f>
-        <v>1</v>
+        <f>SUM('2018'!C6+'2019'!C7)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2618,14 +2875,14 @@
       </c>
       <c r="B10" s="8">
         <f>SUM(B8/B9)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/2019/Pineview/Pineview Report.xlsx
+++ b/2019/Pineview/Pineview Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9DF04-6C60-4446-92D0-010075E081E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420E1F4-FB21-4248-B4DB-252D6D96CA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -227,18 +227,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -874,6 +874,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93B2-4C69-80DC-0A00A6EE2584}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -2528,12 +2533,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2574,12 +2579,12 @@
         <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2626,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101145C2-0D85-474B-8D0D-E5BD092738D9}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2644,14 +2649,14 @@
         <v>17</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2660,16 +2665,16 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2687,7 +2692,7 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -2711,7 +2716,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
@@ -2723,12 +2728,12 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2788,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2798,12 +2803,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2826,12 +2831,12 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2842,11 +2847,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <f>SUM(A3/$B8*100)</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <f>SUM(B3/$B8*100)</f>
         <v>66.666666666666657</v>
       </c>
